--- a/hw1_requirements.xlsx
+++ b/hw1_requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmrogers/Work/Teaching/ece568_s2019/homework/hw1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erica/Desktop/Ride_Sharing_Service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D75D6A-2EE1-104A-B584-697538A4DDD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353EC9DD-645A-6743-A558-7DC06CC7E4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="460" windowWidth="20120" windowHeight="15900" xr2:uid="{845B1E4D-506C-FC44-903E-E3158AE804D8}"/>
+    <workbookView xWindow="5480" yWindow="500" windowWidth="20120" windowHeight="14360" xr2:uid="{845B1E4D-506C-FC44-903E-E3158AE804D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Requirement</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>A driver should be able to edit a confirmed ride for the purpose of marking it complete after the ride is over</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -132,10 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424E5EF4-563A-BB4B-A754-3D0CDD69DA25}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,6 +485,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -487,6 +496,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -495,6 +507,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -503,6 +518,9 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -511,6 +529,9 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -519,6 +540,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -527,6 +551,9 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -535,6 +562,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
@@ -543,6 +573,9 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
@@ -551,6 +584,9 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
@@ -559,6 +595,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
@@ -567,6 +606,9 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -575,6 +617,9 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
@@ -583,6 +628,9 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -591,6 +639,9 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
@@ -599,6 +650,9 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
@@ -607,6 +661,9 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
@@ -615,6 +672,9 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -623,6 +683,9 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -630,6 +693,9 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
